--- a/data/trans_bre/P1_R-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P1_R-Provincia-trans_bre.xlsx
@@ -637,7 +637,7 @@
         <v>0.7507913799403909</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>-3.331843232757992</v>
+        <v>-3.331843232757994</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1274433091868583</v>
@@ -649,7 +649,7 @@
         <v>0.06438512931039903</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>-0.1836843410181686</v>
+        <v>-0.1836843410181687</v>
       </c>
     </row>
     <row r="5">
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-4.589172015700151</v>
+        <v>-4.303558315394599</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-3.568161113693105</v>
+        <v>-3.249226461634514</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-4.623410975062486</v>
+        <v>-4.696417407062556</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-8.394647496119575</v>
+        <v>-8.280392396208448</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.3297423996287533</v>
+        <v>-0.3087639092115061</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>-0.3578266022371616</v>
+        <v>-0.3396165024949847</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>-0.3403825126046177</v>
+        <v>-0.327927231775262</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>-0.3944656420000786</v>
+        <v>-0.395205714187359</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>6.724231925210036</v>
+        <v>7.540685773193058</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>6.031004125403417</v>
+        <v>5.801866294978681</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>6.463163826659112</v>
+        <v>6.866160019051991</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>2.297483697832732</v>
+        <v>2.258462931945107</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.8380245613579176</v>
+        <v>0.8587780283862947</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.9441398191408122</v>
+        <v>1.020278826809857</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.7256803428319635</v>
+        <v>0.7496217107668809</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>0.1639966947811425</v>
+        <v>0.1606533005576192</v>
       </c>
     </row>
     <row r="7">
@@ -737,7 +737,7 @@
         <v>-0.528754468977552</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.4064285760102149</v>
+        <v>0.4064285760102176</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.3018653453926803</v>
@@ -749,7 +749,7 @@
         <v>-0.06609076991635747</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>0.02569181512808306</v>
+        <v>0.02569181512808325</v>
       </c>
     </row>
     <row r="8">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-2.178573372962076</v>
+        <v>-1.522313551806032</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-1.94518663822059</v>
+        <v>-1.282877570618965</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-4.213718523920193</v>
+        <v>-4.08380020779326</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-4.204390001310735</v>
+        <v>-4.538508162435188</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.2163776768370979</v>
+        <v>-0.1700848021801165</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.287859186062759</v>
+        <v>-0.1978466343724816</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.4304645672574583</v>
+        <v>-0.4493684424918697</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.2162293865472178</v>
+        <v>-0.2370924860272231</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>5.333200626016913</v>
+        <v>5.663522491481124</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>4.824489191235696</v>
+        <v>4.988356218511245</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>2.686290180352244</v>
+        <v>2.927875722383342</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>4.759810828650112</v>
+        <v>4.694595699863293</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.9878386578694305</v>
+        <v>1.073818513862937</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>1.290505308360317</v>
+        <v>1.41459728338045</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.4340974747815878</v>
+        <v>0.4614479972663837</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.3648600604967653</v>
+        <v>0.3585095356229607</v>
       </c>
     </row>
     <row r="10">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-2.837475309142416</v>
+        <v>-2.377784187447202</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>1.020473823642676</v>
+        <v>1.562553588277811</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-1.081375414108335</v>
+        <v>-0.5421961563235839</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-3.766403407740799</v>
+        <v>-3.607920939302963</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.2970809702925862</v>
+        <v>-0.3020590245251119</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.09771678633376338</v>
+        <v>0.1364654806980766</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>-0.1004402870080613</v>
+        <v>-0.05513174757857938</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.1678584218841595</v>
+        <v>-0.1630862373927024</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>5.717082106641646</v>
+        <v>6.08279152695045</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>10.99950424687328</v>
+        <v>11.45402086590524</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>9.415977577825855</v>
+        <v>10.11233209842474</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>6.770363390237814</v>
+        <v>7.183442087893706</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>1.173802838873642</v>
+        <v>1.220861193403785</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>2.148260408047164</v>
+        <v>2.097339539608389</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>1.328868873277288</v>
+        <v>1.388692580313022</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>0.4242639545647756</v>
+        <v>0.4467163274423263</v>
       </c>
     </row>
     <row r="13">
@@ -937,7 +937,7 @@
         <v>2.024085865412875</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>-1.467177883263912</v>
+        <v>-1.467177883263915</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.7361595781749564</v>
@@ -949,7 +949,7 @@
         <v>0.1785414555043077</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>-0.06493774138033077</v>
+        <v>-0.0649377413803309</v>
       </c>
     </row>
     <row r="14">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.2773473629292901</v>
+        <v>0.08708345886672718</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-5.255540231852482</v>
+        <v>-5.124158594261314</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-2.925971359690536</v>
+        <v>-2.834169735573481</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-7.93472529272735</v>
+        <v>-7.803330442825325</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.02902615190008365</v>
+        <v>-0.01971882516252989</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.437549528444067</v>
+        <v>-0.4427004183524423</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.2483213160982139</v>
+        <v>-0.2087079541530579</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.2873743066500316</v>
+        <v>-0.2851876067216297</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>7.830340953182866</v>
+        <v>8.386546335133916</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>3.297800806419184</v>
+        <v>3.487811581944488</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>7.970513869675671</v>
+        <v>7.163371244696703</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>5.398507561442459</v>
+        <v>4.388974409670716</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>2.039377545870385</v>
+        <v>2.014944648595375</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.4463389853629028</v>
+        <v>0.4521076165635384</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.8917846803333714</v>
+        <v>0.8494255337540704</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.2942801332206837</v>
+        <v>0.2444988544096486</v>
       </c>
     </row>
     <row r="16">
@@ -1037,7 +1037,7 @@
         <v>-5.648848262703225</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>-5.622685890102422</v>
+        <v>-5.622685890102419</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>-0.5882022872296365</v>
@@ -1049,7 +1049,7 @@
         <v>-0.3878717443576295</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>-0.2268005757466048</v>
+        <v>-0.2268005757466047</v>
       </c>
     </row>
     <row r="17">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-10.31626668623917</v>
+        <v>-10.8688317393776</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-2.671782829637956</v>
+        <v>-2.136165581545693</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-11.84986808396145</v>
+        <v>-12.13854506609789</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-12.00615242655852</v>
+        <v>-11.65353572911008</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>-0.8302420157867689</v>
+        <v>-0.82968439163868</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>-0.3973435940499559</v>
+        <v>-0.3562081897090001</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>-0.6576387821839818</v>
+        <v>-0.6550098895451626</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>-0.4067645050912421</v>
+        <v>-0.4085264371689769</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>-0.3018489556927154</v>
+        <v>-0.8237238330795125</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>7.223581473776767</v>
+        <v>7.511532488044425</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.3494593716541554</v>
+        <v>0.9767293595019452</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.6846550230671283</v>
+        <v>0.5088364248701415</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.002445656797202786</v>
+        <v>-0.04712172395262219</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>2.34916399601716</v>
+        <v>2.441248075669452</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.05590294143152626</v>
+        <v>0.1244896075473304</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>0.0371848043879156</v>
+        <v>0.02295562445704327</v>
       </c>
     </row>
     <row r="19">
@@ -1137,7 +1137,7 @@
         <v>1.984463345380003</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>-5.996903182941507</v>
+        <v>-5.996903182941512</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.3889886831949403</v>
@@ -1149,7 +1149,7 @@
         <v>0.1759872905988265</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>-0.2202392450360056</v>
+        <v>-0.2202392450360058</v>
       </c>
     </row>
     <row r="20">
@@ -1160,28 +1160,28 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>-2.193146351718529</v>
+        <v>-1.835085265197377</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.2639048917505672</v>
+        <v>0.1263793845500755</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>-4.407682298269849</v>
+        <v>-3.646063250404343</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>-12.09199204857867</v>
+        <v>-12.07382444488352</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.2332279773228078</v>
+        <v>-0.1786415914767988</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.03628159099660059</v>
+        <v>0.0005068447039142744</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.302576330198067</v>
+        <v>-0.2664871571751078</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.3841179451628917</v>
+        <v>-0.4001460997877271</v>
       </c>
     </row>
     <row r="21">
@@ -1192,28 +1192,28 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>8.269992162916068</v>
+        <v>8.302461922320242</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>11.00802558157548</v>
+        <v>10.65655514488325</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>7.736947051037732</v>
+        <v>7.875235756020217</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.07599067512936146</v>
+        <v>-0.5314091221604594</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>1.402648715770413</v>
+        <v>1.473881035613407</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>2.03606638386548</v>
+        <v>2.061104705770374</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>1.002305847971121</v>
+        <v>0.9183466065813181</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.002994610298421052</v>
+        <v>-0.02799552554606587</v>
       </c>
     </row>
     <row r="22">
@@ -1237,7 +1237,7 @@
         <v>1.423117214599562</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>-4.381854945517852</v>
+        <v>-4.381854945517855</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1710309014509912</v>
@@ -1249,7 +1249,7 @@
         <v>0.07667474790437609</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>-0.2432467999759146</v>
+        <v>-0.2432467999759148</v>
       </c>
     </row>
     <row r="23">
@@ -1260,28 +1260,28 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-2.338991391717589</v>
+        <v>-2.259696063808422</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-1.627602210411</v>
+        <v>-1.450790252807393</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-2.84905102966893</v>
+        <v>-3.335583859521871</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-8.347147907431594</v>
+        <v>-8.075043806637934</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>-0.2709169495723557</v>
+        <v>-0.2514773557240349</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>-0.1625649337755392</v>
+        <v>-0.137240198543411</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>-0.1389023090985843</v>
+        <v>-0.1651087254503089</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>-0.4048282200925601</v>
+        <v>-0.3943720351372828</v>
       </c>
     </row>
     <row r="24">
@@ -1292,28 +1292,28 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>4.226763456781005</v>
+        <v>4.058319037254522</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>5.404828652735662</v>
+        <v>5.23527526366366</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>6.041055832522726</v>
+        <v>5.939880836938852</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>-0.5664251953615753</v>
+        <v>-0.4497995320178917</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.7458400456085313</v>
+        <v>0.7396977443820719</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.7202910321405968</v>
+        <v>0.6680691937981067</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.3733498974882282</v>
+        <v>0.3636750327209469</v>
       </c>
       <c r="J24" s="6" t="n">
-        <v>-0.03304534181205582</v>
+        <v>-0.02660794436302561</v>
       </c>
     </row>
     <row r="25">
@@ -1337,7 +1337,7 @@
         <v>-0.2817472505460578</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>4.572243203400187</v>
+        <v>4.572243203400184</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2123549054317218</v>
@@ -1349,7 +1349,7 @@
         <v>-0.0225217345841087</v>
       </c>
       <c r="J25" s="6" t="n">
-        <v>0.3330272668508711</v>
+        <v>0.3330272668508709</v>
       </c>
     </row>
     <row r="26">
@@ -1360,28 +1360,28 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>-1.108303927696079</v>
+        <v>-1.231111968226364</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>-4.076093001246933</v>
+        <v>-4.022753426781556</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>-3.573632698195101</v>
+        <v>-3.912356513203748</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>1.500952829061901</v>
+        <v>1.034409871384076</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.1473508685561378</v>
+        <v>-0.1813208875499912</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.3407653196959711</v>
+        <v>-0.3286950528066211</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.2547053796621004</v>
+        <v>-0.2749060369806008</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>0.09562283581990817</v>
+        <v>0.06278882803532997</v>
       </c>
     </row>
     <row r="27">
@@ -1392,28 +1392,28 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>3.842253065836147</v>
+        <v>4.175409451443311</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>2.31146530888185</v>
+        <v>2.226000470363834</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>3.032984828106171</v>
+        <v>3.133202153418837</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>8.416951739679975</v>
+        <v>8.311824221780229</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.8214905228231288</v>
+        <v>0.8667382387497833</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.2548732924450464</v>
+        <v>0.2613263413169515</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.2828421491318794</v>
+        <v>0.282978271062703</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.7139053733233346</v>
+        <v>0.7091819675224066</v>
       </c>
     </row>
     <row r="28">
@@ -1437,7 +1437,7 @@
         <v>0.6502590207420333</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>-0.8313958987296671</v>
+        <v>-0.8313958987296644</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.2031740480750256</v>
@@ -1449,7 +1449,7 @@
         <v>0.05180077244493558</v>
       </c>
       <c r="J28" s="6" t="n">
-        <v>-0.04511873474860093</v>
+        <v>-0.04511873474860078</v>
       </c>
     </row>
     <row r="29">
@@ -1460,28 +1460,28 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.2234740495155257</v>
+        <v>0.09027313245179173</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.1614411506488396</v>
+        <v>0.0677320285027342</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-0.8802978337226798</v>
+        <v>-0.8377587109068135</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-2.603486102261205</v>
+        <v>-2.672319205965469</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>0.0287499558705391</v>
+        <v>0.01049274760423651</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.01836805993703061</v>
+        <v>0.009131446273800999</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>-0.06778387382792711</v>
+        <v>-0.06365226365062061</v>
       </c>
       <c r="J29" s="6" t="n">
-        <v>-0.1335914749027276</v>
+        <v>-0.1356882169516344</v>
       </c>
     </row>
     <row r="30">
@@ -1492,28 +1492,28 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>2.889445683929228</v>
+        <v>2.857894338493321</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>3.073194588030288</v>
+        <v>3.06217889631598</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>2.262405757348718</v>
+        <v>2.456079371797527</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>0.852982001506686</v>
+        <v>0.8749248510025809</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>0.4376227047227954</v>
+        <v>0.4188376570583858</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.3981142518220524</v>
+        <v>0.402661315562167</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.1952430921044455</v>
+        <v>0.2114955907172255</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>0.04839770249917334</v>
+        <v>0.05027019638621702</v>
       </c>
     </row>
     <row r="31">
